--- a/Indicators/Indicators_Process_B_7_3/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_3/files/record.xlsx
@@ -595,6 +595,15 @@
       <c r="A12" s="1">
         <v>2020</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
